--- a/Βαση Δεδομενων/ΠΡΟΪΟΝΤΑ.xlsx
+++ b/Βαση Δεδομενων/ΠΡΟΪΟΝΤΑ.xlsx
@@ -8,9 +8,11 @@
   </bookViews>
   <sheets>
     <sheet sheetId="1" r:id="rId1" name="ΠΡΟΪΟΝΤΑ"/>
+    <sheet r:id="rId4" name="ΠΕΛΑΤΕΣ" sheetId="2"/>
   </sheets>
   <definedNames>
     <definedName name="ΠΡΟΪΟΝΤΑ">'ΠΡΟΪΟΝΤΑ'!$A$1:$C$5</definedName>
+    <definedName name="ΠΕΛΑΤΕΣ">'ΠΕΛΑΤΕΣ'!$A$1:$F$7</definedName>
   </definedNames>
   <calcPr calcId="125725" fullCalcOnLoad="true"/>
 </workbook>
@@ -423,4 +425,231 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row outlineLevel="0" r="1">
+      <c r="A1" s="0" t="inlineStr">
+        <is>
+          <t>ΚΩΔ_ΠΕΛ</t>
+        </is>
+      </c>
+      <c r="B1" s="0" t="inlineStr">
+        <is>
+          <t>ΟΝΟΜΑ</t>
+        </is>
+      </c>
+      <c r="C1" s="0" t="inlineStr">
+        <is>
+          <t>ΕΠΩΝΥΜΟ</t>
+        </is>
+      </c>
+      <c r="D1" s="0" t="inlineStr">
+        <is>
+          <t>ΔΙΕΥΘΥΝΣΗ</t>
+        </is>
+      </c>
+      <c r="E1" s="0" t="inlineStr">
+        <is>
+          <t>ΠΟΛΗ</t>
+        </is>
+      </c>
+      <c r="F1" s="0" t="inlineStr">
+        <is>
+          <t>ΤΗΛΕΦΩΝΟ</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2">
+      <c r="A2" s="0">
+        <v>1</v>
+      </c>
+      <c r="B2" s="0" t="inlineStr">
+        <is>
+          <t>Άγγελος</t>
+        </is>
+      </c>
+      <c r="C2" s="0" t="inlineStr">
+        <is>
+          <t>Βώρος</t>
+        </is>
+      </c>
+      <c r="D2" s="0" t="inlineStr">
+        <is>
+          <t>Κορίνθου 200</t>
+        </is>
+      </c>
+      <c r="E2" s="0" t="inlineStr">
+        <is>
+          <t>Πάτρα</t>
+        </is>
+      </c>
+      <c r="F2" s="0" t="inlineStr">
+        <is>
+          <t>26109919890</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3">
+      <c r="A3" s="0">
+        <v>2</v>
+      </c>
+      <c r="B3" s="0" t="inlineStr">
+        <is>
+          <t>Άγγελος</t>
+        </is>
+      </c>
+      <c r="C3" s="0" t="inlineStr">
+        <is>
+          <t>Βώρος</t>
+        </is>
+      </c>
+      <c r="D3" s="0" t="inlineStr">
+        <is>
+          <t>Κορίνθου 200</t>
+        </is>
+      </c>
+      <c r="E3" s="0" t="inlineStr">
+        <is>
+          <t>Πάτρα</t>
+        </is>
+      </c>
+      <c r="F3" s="0" t="inlineStr">
+        <is>
+          <t>26109919890</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4">
+      <c r="A4" s="0">
+        <v>3</v>
+      </c>
+      <c r="B4" s="0" t="inlineStr">
+        <is>
+          <t>Κώστας</t>
+        </is>
+      </c>
+      <c r="C4" s="0" t="inlineStr">
+        <is>
+          <t>Περδίου</t>
+        </is>
+      </c>
+      <c r="D4" s="0" t="inlineStr">
+        <is>
+          <t>Αθηνών 6</t>
+        </is>
+      </c>
+      <c r="E4" s="0" t="inlineStr">
+        <is>
+          <t>Αθήνα</t>
+        </is>
+      </c>
+      <c r="F4" s="0" t="inlineStr">
+        <is>
+          <t>2109919890</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="5">
+      <c r="A5" s="0">
+        <v>4</v>
+      </c>
+      <c r="B5" s="0" t="inlineStr">
+        <is>
+          <t>Κώστας</t>
+        </is>
+      </c>
+      <c r="C5" s="0" t="inlineStr">
+        <is>
+          <t>Περδίου</t>
+        </is>
+      </c>
+      <c r="D5" s="0" t="inlineStr">
+        <is>
+          <t>Αθηνών 6</t>
+        </is>
+      </c>
+      <c r="E5" s="0" t="inlineStr">
+        <is>
+          <t>Αθήνα</t>
+        </is>
+      </c>
+      <c r="F5" s="0" t="inlineStr">
+        <is>
+          <t>2109919890</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="6">
+      <c r="A6" s="0">
+        <v>5</v>
+      </c>
+      <c r="B6" s="0" t="inlineStr">
+        <is>
+          <t>Γιώργος</t>
+        </is>
+      </c>
+      <c r="C6" s="0" t="inlineStr">
+        <is>
+          <t>Καλέμης</t>
+        </is>
+      </c>
+      <c r="D6" s="0" t="inlineStr">
+        <is>
+          <t>Αράτου 111</t>
+        </is>
+      </c>
+      <c r="E6" s="0" t="inlineStr">
+        <is>
+          <t>Πάτρα</t>
+        </is>
+      </c>
+      <c r="F6" s="0" t="inlineStr">
+        <is>
+          <t>2610887960</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="7">
+      <c r="A7" s="0">
+        <v>6</v>
+      </c>
+      <c r="B7" s="0" t="inlineStr">
+        <is>
+          <t>Γιώργος</t>
+        </is>
+      </c>
+      <c r="C7" s="0" t="inlineStr">
+        <is>
+          <t>Καλέμης</t>
+        </is>
+      </c>
+      <c r="D7" s="0" t="inlineStr">
+        <is>
+          <t>Αράτου 111</t>
+        </is>
+      </c>
+      <c r="E7" s="0" t="inlineStr">
+        <is>
+          <t>Πάτρα</t>
+        </is>
+      </c>
+      <c r="F7" s="0" t="inlineStr">
+        <is>
+          <t>2610887960</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>